--- a/bd/M_Kolomenskaya21_3_12_142_N.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_N.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -400,54 +400,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>184.125</v>
+        <v>183.0625</v>
       </c>
       <c r="B1" t="n">
-        <v>483.125</v>
+        <v>481.5625</v>
       </c>
       <c r="C1" t="n">
-        <v>65.75</v>
+        <v>67.375</v>
       </c>
       <c r="D1" t="n">
-        <v>34.5</v>
+        <v>36.75</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" t="n">
-        <v>0.908135379440824</v>
+        <v>0.842948717948718</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>975</v>
+        <v>990.5</v>
       </c>
       <c r="B2" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C2" t="n">
-        <v>79.5</v>
+        <v>77.75</v>
       </c>
       <c r="D2" t="n">
-        <v>173.75</v>
+        <v>171.875</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9363916730917502</v>
+        <v>0.6631778534376568</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9585607196401799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9564913750960262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,33 +525,33 @@
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.959731543624161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1623.25</v>
+        <v>1622.625</v>
       </c>
       <c r="B6" t="n">
-        <v>773.25</v>
+        <v>771.125</v>
       </c>
       <c r="C6" t="n">
-        <v>68.75</v>
+        <v>72.875</v>
       </c>
       <c r="D6" t="n">
-        <v>106.5</v>
+        <v>108.25</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9416600371254309</v>
+        <v>0.864448051948052</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9781021897810219</v>
+        <v>0.1013273509067115</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9152648844838417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -611,25 +611,25 @@
         <v>1743</v>
       </c>
       <c r="B9" t="n">
-        <v>752.25</v>
+        <v>752.625</v>
       </c>
       <c r="C9" t="n">
-        <v>60.5</v>
+        <v>60.75</v>
       </c>
       <c r="D9" t="n">
-        <v>85.5</v>
+        <v>84.75</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9343802579921481</v>
+        <v>0.9509734261759273</v>
       </c>
     </row>
     <row r="10">
@@ -655,59 +655,59 @@
         <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>0.967624946158347</v>
+        <v>0.1091213048413364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B11" t="n">
-        <v>25.75</v>
+        <v>24.875</v>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>42.25</v>
       </c>
       <c r="D11" t="n">
-        <v>76.25</v>
+        <v>72.125</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9334846232099538</v>
+        <v>0.743092635728364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>723.25</v>
+        <v>717.625</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="C12" t="n">
-        <v>40.25</v>
+        <v>45.625</v>
       </c>
       <c r="D12" t="n">
-        <v>76.75</v>
+        <v>81.875</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9109959789669038</v>
+        <v>0.680984421240717</v>
       </c>
     </row>
     <row r="13">
@@ -733,137 +733,137 @@
         <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9678208263611791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>297.75</v>
+        <v>298.375</v>
       </c>
       <c r="B14" t="n">
-        <v>457.5</v>
+        <v>458.25</v>
       </c>
       <c r="C14" t="n">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="D14" t="n">
-        <v>58.25</v>
+        <v>58.625</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9380198551113497</v>
+        <v>0.9264176917269861</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>125.75</v>
+        <v>125.875</v>
       </c>
       <c r="B15" t="n">
-        <v>482.5</v>
+        <v>483.75</v>
       </c>
       <c r="C15" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="n">
-        <v>36.75</v>
+        <v>38.875</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9364682341170585</v>
+        <v>0.8447118722517936</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1006.5</v>
+        <v>1014.25</v>
       </c>
       <c r="B16" t="n">
-        <v>18.25</v>
+        <v>17.125</v>
       </c>
       <c r="C16" t="n">
-        <v>40.5</v>
+        <v>41.25</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>80.5</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8850574712643678</v>
+        <v>0.6615673392773346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>436.5</v>
+        <v>436.75</v>
       </c>
       <c r="B17" t="n">
-        <v>549.75</v>
+        <v>536.375</v>
       </c>
       <c r="C17" t="n">
-        <v>95.5</v>
+        <v>101.75</v>
       </c>
       <c r="D17" t="n">
-        <v>53.75</v>
+        <v>54.375</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9527296937416777</v>
+        <v>0.6412988095789522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1869.5</v>
+        <v>1867.75</v>
       </c>
       <c r="B18" t="n">
         <v>151</v>
       </c>
       <c r="C18" t="n">
-        <v>29.5</v>
+        <v>29.75</v>
       </c>
       <c r="D18" t="n">
-        <v>40.25</v>
+        <v>41.625</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9361281201992384</v>
+        <v>0.8880632561684291</v>
       </c>
     </row>
     <row r="19">
@@ -889,33 +889,33 @@
         <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9456912797670036</v>
+        <v>0.1279114165712104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1534</v>
+        <v>1536.5</v>
       </c>
       <c r="B20" t="n">
-        <v>99.75</v>
+        <v>97.375</v>
       </c>
       <c r="C20" t="n">
-        <v>39.75</v>
+        <v>42.875</v>
       </c>
       <c r="D20" t="n">
-        <v>79.75</v>
+        <v>71.375</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9570182884481827</v>
+        <v>0.7026884831904036</v>
       </c>
     </row>
     <row r="21">
@@ -941,59 +941,59 @@
         <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9622162326173391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109.25</v>
+        <v>111.625</v>
       </c>
       <c r="B22" t="n">
-        <v>820.5</v>
+        <v>821.25</v>
       </c>
       <c r="C22" t="n">
-        <v>74</v>
+        <v>69.5</v>
       </c>
       <c r="D22" t="n">
-        <v>96.5</v>
+        <v>90.75</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9377289377289377</v>
+        <v>0.7737011623021985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>238</v>
+        <v>237.5</v>
       </c>
       <c r="B23" t="n">
-        <v>471.75</v>
+        <v>469.875</v>
       </c>
       <c r="C23" t="n">
-        <v>81.75</v>
+        <v>81.375</v>
       </c>
       <c r="D23" t="n">
-        <v>47.5</v>
+        <v>48.75</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9614850359893926</v>
+        <v>0.8605980650835532</v>
       </c>
     </row>
     <row r="24">
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>0.970860956324472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1036,7 +1036,7 @@
         <v>38.75</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
@@ -1045,33 +1045,33 @@
         <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9322940108446527</v>
+        <v>0.04627852785963951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1617.5</v>
+        <v>1617.25</v>
       </c>
       <c r="B26" t="n">
-        <v>55.5</v>
+        <v>54.25</v>
       </c>
       <c r="C26" t="n">
-        <v>35.25</v>
+        <v>37.125</v>
       </c>
       <c r="D26" t="n">
-        <v>60.25</v>
+        <v>60.125</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9201039665498927</v>
+        <v>0.8951536010649419</v>
       </c>
     </row>
     <row r="27">
@@ -1097,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9051297898640297</v>
+        <v>0.03627465092845833</v>
       </c>
     </row>
     <row r="28">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8898678414096917</v>
+        <v>0.1092862935928629</v>
       </c>
     </row>
     <row r="29">
@@ -1149,189 +1149,189 @@
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9324324324324325</v>
+        <v>0.03646086533787068</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>592.25</v>
+        <v>592.625</v>
       </c>
       <c r="B30" t="n">
-        <v>63.5</v>
+        <v>64.25</v>
       </c>
       <c r="C30" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9105431309904153</v>
+        <v>0.8242803504380476</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1820.25</v>
+        <v>1815.625</v>
       </c>
       <c r="B31" t="n">
-        <v>140.25</v>
+        <v>139.125</v>
       </c>
       <c r="C31" t="n">
-        <v>33.5</v>
+        <v>34.75</v>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>50.5</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9059233449477352</v>
+        <v>0.6880667827758092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.5</v>
+        <v>7.25</v>
       </c>
       <c r="B32" t="n">
-        <v>488.25</v>
+        <v>492.625</v>
       </c>
       <c r="C32" t="n">
-        <v>80.75</v>
+        <v>77.875</v>
       </c>
       <c r="D32" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9039528432732317</v>
+        <v>0.6633263294003556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1103.25</v>
+        <v>1108.625</v>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>43.5</v>
+        <v>43.75</v>
       </c>
       <c r="D33" t="n">
-        <v>90.5</v>
+        <v>83.25</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8819311663479924</v>
+        <v>0.7806786915316417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1734.5</v>
+        <v>1736.75</v>
       </c>
       <c r="B34" t="n">
-        <v>73.5</v>
+        <v>74.25</v>
       </c>
       <c r="C34" t="n">
-        <v>33.25</v>
+        <v>35.125</v>
       </c>
       <c r="D34" t="n">
-        <v>46.75</v>
+        <v>48.875</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9261266842186774</v>
+        <v>0.6404726818716149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1471</v>
+        <v>1467.5</v>
       </c>
       <c r="B35" t="n">
-        <v>33.5</v>
+        <v>33.75</v>
       </c>
       <c r="C35" t="n">
-        <v>39.5</v>
+        <v>39.75</v>
       </c>
       <c r="D35" t="n">
-        <v>67.25</v>
+        <v>65.625</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7933479655579943</v>
+        <v>0.7426399966592893</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>80.25</v>
+        <v>82.125</v>
       </c>
       <c r="B36" t="n">
-        <v>494.75</v>
+        <v>491.375</v>
       </c>
       <c r="C36" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="D36" t="n">
-        <v>38.25</v>
+        <v>37.625</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9115884115884116</v>
+        <v>0.7059293348039403</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9385942971485743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1374,7 +1374,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -1383,33 +1383,33 @@
         <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8589580686149937</v>
+        <v>0.001829738058551618</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1548.75</v>
+        <v>1544.875</v>
       </c>
       <c r="B39" t="n">
-        <v>43.75</v>
+        <v>41.375</v>
       </c>
       <c r="C39" t="n">
-        <v>37</v>
+        <v>39.5</v>
       </c>
       <c r="D39" t="n">
-        <v>64.25</v>
+        <v>68.125</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8873239436619719</v>
+        <v>0.7861276455026455</v>
       </c>
     </row>
     <row r="40">
@@ -1461,85 +1461,85 @@
         <v>7</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8274445357436319</v>
+        <v>0.04047233596800304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39</v>
+        <v>32.5</v>
       </c>
       <c r="B42" t="n">
-        <v>809.5</v>
+        <v>805.25</v>
       </c>
       <c r="C42" t="n">
-        <v>56.25</v>
+        <v>60.625</v>
       </c>
       <c r="D42" t="n">
-        <v>59.5</v>
+        <v>68.75</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9575961397865185</v>
+        <v>0.6601331360946746</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1783.75</v>
+        <v>1788.375</v>
       </c>
       <c r="B43" t="n">
-        <v>85.25</v>
+        <v>85.625</v>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>49.75</v>
+        <v>47.375</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8557323093801427</v>
+        <v>0.6853489407723138</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>40.5</v>
+        <v>40.75</v>
       </c>
       <c r="B44" t="n">
-        <v>491.5</v>
+        <v>491.75</v>
       </c>
       <c r="C44" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44" t="n">
-        <v>36.5</v>
+        <v>36.75</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9492656875834445</v>
+        <v>0.9307881774232952</v>
       </c>
     </row>
     <row r="45">
@@ -1556,7 +1556,7 @@
         <v>39</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9788150984750073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1591,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9063745019920318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1617,7 +1617,7 @@
         <v>7</v>
       </c>
       <c r="H47" t="n">
-        <v>1.014125054189168</v>
+        <v>0.001827331252986984</v>
       </c>
     </row>
     <row r="48">
@@ -1643,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9472830494728305</v>
+        <v>0.1465174523745103</v>
       </c>
     </row>
     <row r="49">
@@ -1660,7 +1660,7 @@
         <v>88</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7626849894291755</v>
+        <v>0.02330335241210139</v>
       </c>
     </row>
     <row r="50">
@@ -1686,7 +1686,7 @@
         <v>79</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>0.975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1721,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.009554140127388535</v>
+        <v>0.01641684511063526</v>
       </c>
     </row>
     <row r="52">
@@ -1747,6 +1747,318 @@
         <v>5</v>
       </c>
       <c r="H52" t="n">
+        <v>0.02461648234034963</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1477</v>
+      </c>
+      <c r="B53" t="n">
+        <v>794</v>
+      </c>
+      <c r="C53" t="n">
+        <v>79</v>
+      </c>
+      <c r="D53" t="n">
+        <v>138</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>315</v>
+      </c>
+      <c r="B54" t="n">
+        <v>207</v>
+      </c>
+      <c r="C54" t="n">
+        <v>47</v>
+      </c>
+      <c r="D54" t="n">
+        <v>64</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>231</v>
+      </c>
+      <c r="B55" t="n">
+        <v>230</v>
+      </c>
+      <c r="C55" t="n">
+        <v>43</v>
+      </c>
+      <c r="D55" t="n">
+        <v>59</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.001262095077829196</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>47</v>
+      </c>
+      <c r="D56" t="n">
+        <v>74</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>41</v>
+      </c>
+      <c r="D57" t="n">
+        <v>75</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>899</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19</v>
+      </c>
+      <c r="C58" t="n">
+        <v>49</v>
+      </c>
+      <c r="D58" t="n">
+        <v>85</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>383</v>
+      </c>
+      <c r="B59" t="n">
+        <v>132</v>
+      </c>
+      <c r="C59" t="n">
+        <v>65</v>
+      </c>
+      <c r="D59" t="n">
+        <v>47</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>278</v>
+      </c>
+      <c r="C60" t="n">
+        <v>48</v>
+      </c>
+      <c r="D60" t="n">
+        <v>42</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>471</v>
+      </c>
+      <c r="B61" t="n">
+        <v>120</v>
+      </c>
+      <c r="C61" t="n">
+        <v>68</v>
+      </c>
+      <c r="D61" t="n">
+        <v>52</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.01010793215692993</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>432</v>
+      </c>
+      <c r="B62" t="n">
+        <v>127</v>
+      </c>
+      <c r="C62" t="n">
+        <v>59</v>
+      </c>
+      <c r="D62" t="n">
+        <v>40</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1676</v>
+      </c>
+      <c r="B63" t="n">
+        <v>60</v>
+      </c>
+      <c r="C63" t="n">
+        <v>44</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B64" t="n">
+        <v>722</v>
+      </c>
+      <c r="C64" t="n">
+        <v>58</v>
+      </c>
+      <c r="D64" t="n">
+        <v>33</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
         <v>0</v>
       </c>
     </row>

--- a/bd/M_Kolomenskaya21_3_12_142_N.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_N.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -400,80 +400,80 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>183.0625</v>
+        <v>185.2578125</v>
       </c>
       <c r="B1" t="n">
-        <v>481.5625</v>
+        <v>480.9453125</v>
       </c>
       <c r="C1" t="n">
-        <v>67.375</v>
+        <v>69.296875</v>
       </c>
       <c r="D1" t="n">
-        <v>36.75</v>
+        <v>34.71875</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H1" t="n">
-        <v>0.842948717948718</v>
+        <v>0.8979335937169048</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>990.5</v>
+        <v>1005.3125</v>
       </c>
       <c r="B2" t="n">
-        <v>854</v>
+        <v>852.875</v>
       </c>
       <c r="C2" t="n">
-        <v>77.75</v>
+        <v>74.46875</v>
       </c>
       <c r="D2" t="n">
-        <v>171.875</v>
+        <v>168.234375</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6631778534376568</v>
+        <v>0.8878999727588567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>629.75</v>
+        <v>621.96875</v>
       </c>
       <c r="B3" t="n">
-        <v>868.25</v>
+        <v>866.65625</v>
       </c>
       <c r="C3" t="n">
-        <v>75.25</v>
+        <v>74.78125</v>
       </c>
       <c r="D3" t="n">
-        <v>162.75</v>
+        <v>156.34375</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.8961601267859359</v>
       </c>
     </row>
     <row r="4">
@@ -499,59 +499,59 @@
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.09975470895448087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1177</v>
+        <v>1178.75</v>
       </c>
       <c r="B5" t="n">
-        <v>840.25</v>
+        <v>837.3125</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>73.5</v>
       </c>
       <c r="D5" t="n">
-        <v>143</v>
+        <v>132.25</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.01215109403645328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1622.625</v>
+        <v>1617.703125</v>
       </c>
       <c r="B6" t="n">
-        <v>771.125</v>
+        <v>773.015625</v>
       </c>
       <c r="C6" t="n">
-        <v>72.875</v>
+        <v>70.734375</v>
       </c>
       <c r="D6" t="n">
-        <v>108.25</v>
+        <v>113.03125</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>0.864448051948052</v>
+        <v>0.9622953892589908</v>
       </c>
     </row>
     <row r="7">
@@ -577,59 +577,59 @@
         <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1013273509067115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1331.75</v>
+        <v>1312.96875</v>
       </c>
       <c r="B8" t="n">
-        <v>819.25</v>
+        <v>822.90625</v>
       </c>
       <c r="C8" t="n">
-        <v>73.5</v>
+        <v>73.5625</v>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>137.625</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.8342830924945973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1743</v>
+        <v>1740.75</v>
       </c>
       <c r="B9" t="n">
-        <v>752.625</v>
+        <v>750.203125</v>
       </c>
       <c r="C9" t="n">
-        <v>60.75</v>
+        <v>63.46875</v>
       </c>
       <c r="D9" t="n">
-        <v>84.75</v>
+        <v>96.46875</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9509734261759273</v>
+        <v>0.9430176930670514</v>
       </c>
     </row>
     <row r="10">
@@ -655,59 +655,59 @@
         <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1091213048413364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1386</v>
+        <v>1381.125</v>
       </c>
       <c r="B11" t="n">
-        <v>24.875</v>
+        <v>26.484375</v>
       </c>
       <c r="C11" t="n">
-        <v>42.25</v>
+        <v>39.28125</v>
       </c>
       <c r="D11" t="n">
-        <v>72.125</v>
+        <v>72.890625</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>0.743092635728364</v>
+        <v>0.8850476789963589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>717.625</v>
+        <v>714.453125</v>
       </c>
       <c r="B12" t="n">
-        <v>37.5</v>
+        <v>36.5625</v>
       </c>
       <c r="C12" t="n">
-        <v>45.625</v>
+        <v>41.453125</v>
       </c>
       <c r="D12" t="n">
-        <v>81.875</v>
+        <v>78.609375</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>0.680984421240717</v>
+        <v>0.8926910539248701</v>
       </c>
     </row>
     <row r="13">
@@ -733,85 +733,85 @@
         <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.1282554617298157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>298.375</v>
+        <v>313.171875</v>
       </c>
       <c r="B14" t="n">
-        <v>458.25</v>
+        <v>458.90625</v>
       </c>
       <c r="C14" t="n">
-        <v>92.5</v>
+        <v>84.6875</v>
       </c>
       <c r="D14" t="n">
-        <v>58.625</v>
+        <v>47.078125</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9264176917269861</v>
+        <v>0.8429807358516935</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>125.875</v>
+        <v>124.484375</v>
       </c>
       <c r="B15" t="n">
-        <v>483.75</v>
+        <v>480.71875</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>80.25</v>
       </c>
       <c r="D15" t="n">
-        <v>38.875</v>
+        <v>41.609375</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8447118722517936</v>
+        <v>0.9546601915109612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1014.25</v>
+        <v>1022.78125</v>
       </c>
       <c r="B16" t="n">
-        <v>17.125</v>
+        <v>12.640625</v>
       </c>
       <c r="C16" t="n">
-        <v>41.25</v>
+        <v>44.65625</v>
       </c>
       <c r="D16" t="n">
-        <v>80.5</v>
+        <v>86.6875</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6615673392773346</v>
+        <v>0.8627442779570057</v>
       </c>
     </row>
     <row r="17">
@@ -837,33 +837,33 @@
         <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6412988095789522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1867.75</v>
+        <v>1866.21875</v>
       </c>
       <c r="B18" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n">
-        <v>29.75</v>
+        <v>29.84375</v>
       </c>
       <c r="D18" t="n">
-        <v>41.625</v>
+        <v>43.578125</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8880632561684291</v>
+        <v>0.9024517370933585</v>
       </c>
     </row>
     <row r="19">
@@ -889,33 +889,33 @@
         <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1279114165712104</v>
+        <v>0.1267664796423535</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1536.5</v>
+        <v>1533.9375</v>
       </c>
       <c r="B20" t="n">
-        <v>97.375</v>
+        <v>96.671875</v>
       </c>
       <c r="C20" t="n">
-        <v>42.875</v>
+        <v>40.484375</v>
       </c>
       <c r="D20" t="n">
-        <v>71.375</v>
+        <v>75.421875</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7026884831904036</v>
+        <v>0.8562895003643789</v>
       </c>
     </row>
     <row r="21">
@@ -946,80 +946,80 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111.625</v>
+        <v>115.203125</v>
       </c>
       <c r="B22" t="n">
-        <v>821.25</v>
+        <v>816.53125</v>
       </c>
       <c r="C22" t="n">
-        <v>69.5</v>
+        <v>74.4375</v>
       </c>
       <c r="D22" t="n">
-        <v>90.75</v>
+        <v>92.34375</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7737011623021985</v>
+        <v>0.9108764154879926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>237.5</v>
+        <v>236.3125</v>
       </c>
       <c r="B23" t="n">
-        <v>469.875</v>
+        <v>467.609375</v>
       </c>
       <c r="C23" t="n">
-        <v>81.375</v>
+        <v>80.671875</v>
       </c>
       <c r="D23" t="n">
-        <v>48.75</v>
+        <v>45.96875</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8605980650835532</v>
+        <v>0.898919832970977</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>387</v>
+        <v>397.5</v>
       </c>
       <c r="B24" t="n">
-        <v>697.25</v>
+        <v>708.78125</v>
       </c>
       <c r="C24" t="n">
-        <v>153.75</v>
+        <v>126.71875</v>
       </c>
       <c r="D24" t="n">
-        <v>72.75</v>
+        <v>64.09375</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.9031198461007071</v>
       </c>
     </row>
     <row r="25">
@@ -1042,36 +1042,36 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04627852785963951</v>
+        <v>0.05037643932683791</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1617.25</v>
+        <v>1615.40625</v>
       </c>
       <c r="B26" t="n">
-        <v>54.25</v>
+        <v>53.28125</v>
       </c>
       <c r="C26" t="n">
-        <v>37.125</v>
+        <v>37.390625</v>
       </c>
       <c r="D26" t="n">
-        <v>60.125</v>
+        <v>61.765625</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8951536010649419</v>
+        <v>0.9331625894269847</v>
       </c>
     </row>
     <row r="27">
@@ -1097,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03627465092845833</v>
+        <v>0.02107920918219618</v>
       </c>
     </row>
     <row r="28">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1092862935928629</v>
+        <v>0.09536963000654212</v>
       </c>
     </row>
     <row r="29">
@@ -1149,85 +1149,85 @@
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03646086533787068</v>
+        <v>0.03848127244740893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>592.625</v>
+        <v>594.453125</v>
       </c>
       <c r="B30" t="n">
-        <v>64.25</v>
+        <v>66.28125</v>
       </c>
       <c r="C30" t="n">
-        <v>48</v>
+        <v>51.125</v>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>40.875</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8242803504380476</v>
+        <v>0.8675794784829738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1815.625</v>
+        <v>1811.828125</v>
       </c>
       <c r="B31" t="n">
-        <v>139.125</v>
+        <v>138.140625</v>
       </c>
       <c r="C31" t="n">
-        <v>34.75</v>
+        <v>33.59375</v>
       </c>
       <c r="D31" t="n">
-        <v>50.5</v>
+        <v>50.8125</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6880667827758092</v>
+        <v>0.8972861811307605</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.25</v>
+        <v>12.03125</v>
       </c>
       <c r="B32" t="n">
-        <v>492.625</v>
+        <v>497.578125</v>
       </c>
       <c r="C32" t="n">
-        <v>77.875</v>
+        <v>73.734375</v>
       </c>
       <c r="D32" t="n">
-        <v>33</v>
+        <v>32.125</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6633263294003556</v>
+        <v>0.9184544020608347</v>
       </c>
     </row>
     <row r="33">
@@ -1253,85 +1253,85 @@
         <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7806786915316417</v>
+        <v>0.01320730725215106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1736.75</v>
+        <v>1743.34375</v>
       </c>
       <c r="B34" t="n">
-        <v>74.25</v>
+        <v>74.40625</v>
       </c>
       <c r="C34" t="n">
-        <v>35.125</v>
+        <v>35.265625</v>
       </c>
       <c r="D34" t="n">
-        <v>48.875</v>
+        <v>47.734375</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6404726818716149</v>
+        <v>0.8822074869580172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1467.5</v>
+        <v>1465.1875</v>
       </c>
       <c r="B35" t="n">
-        <v>33.75</v>
+        <v>35.09375</v>
       </c>
       <c r="C35" t="n">
-        <v>39.75</v>
+        <v>35.96875</v>
       </c>
       <c r="D35" t="n">
-        <v>65.625</v>
+        <v>63.578125</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7426399966592893</v>
+        <v>0.9104224525000918</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>82.125</v>
+        <v>85.390625</v>
       </c>
       <c r="B36" t="n">
-        <v>491.375</v>
+        <v>493.296875</v>
       </c>
       <c r="C36" t="n">
-        <v>74.5</v>
+        <v>71.5625</v>
       </c>
       <c r="D36" t="n">
-        <v>37.625</v>
+        <v>35.703125</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7059293348039403</v>
+        <v>0.8949040667588244</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.0581468110709988</v>
       </c>
     </row>
     <row r="38">
@@ -1380,36 +1380,36 @@
         <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001829738058551618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1544.875</v>
+        <v>1541.609375</v>
       </c>
       <c r="B39" t="n">
-        <v>41.375</v>
+        <v>44.671875</v>
       </c>
       <c r="C39" t="n">
-        <v>39.5</v>
+        <v>33.5625</v>
       </c>
       <c r="D39" t="n">
-        <v>68.125</v>
+        <v>61.515625</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7861276455026455</v>
+        <v>0.8852758865968906</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1461,85 +1461,85 @@
         <v>7</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04047233596800304</v>
+        <v>0.04324644549763033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>32.5</v>
+        <v>42.4375</v>
       </c>
       <c r="B42" t="n">
-        <v>805.25</v>
+        <v>808.03125</v>
       </c>
       <c r="C42" t="n">
-        <v>60.625</v>
+        <v>56.078125</v>
       </c>
       <c r="D42" t="n">
-        <v>68.75</v>
+        <v>67.59375</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6601331360946746</v>
+        <v>0.9186083588048342</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1788.375</v>
+        <v>1793.296875</v>
       </c>
       <c r="B43" t="n">
-        <v>85.625</v>
+        <v>85.578125</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>34.25</v>
       </c>
       <c r="D43" t="n">
-        <v>47.375</v>
+        <v>46.171875</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6853489407723138</v>
+        <v>0.8769294952023362</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>40.75</v>
+        <v>43.59375</v>
       </c>
       <c r="B44" t="n">
-        <v>491.75</v>
+        <v>493.09375</v>
       </c>
       <c r="C44" t="n">
-        <v>78</v>
+        <v>75.125</v>
       </c>
       <c r="D44" t="n">
-        <v>36.75</v>
+        <v>34.59375</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9307881774232952</v>
+        <v>0.9535649379350259</v>
       </c>
     </row>
     <row r="45">
@@ -1556,7 +1556,7 @@
         <v>39</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -1617,7 +1617,7 @@
         <v>7</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001827331252986984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1634,68 +1634,68 @@
         <v>48.5</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1465174523745103</v>
+        <v>0.06218607988519493</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>815.5</v>
+        <v>803.875</v>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="C49" t="n">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="D49" t="n">
-        <v>88</v>
+        <v>84.25</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02330335241210139</v>
+        <v>0.7889643121177499</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>815.5</v>
+        <v>802.0625</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C50" t="n">
-        <v>39</v>
+        <v>40.625</v>
       </c>
       <c r="D50" t="n">
-        <v>79</v>
+        <v>82.625</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.8867808519982433</v>
       </c>
     </row>
     <row r="51">
@@ -1712,16 +1712,16 @@
         <v>48</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01641684511063526</v>
+        <v>0.09041769041769042</v>
       </c>
     </row>
     <row r="52">
@@ -1738,68 +1738,68 @@
         <v>48</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02461648234034963</v>
+        <v>0.09719713182497834</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1477</v>
+        <v>1469.75</v>
       </c>
       <c r="B53" t="n">
-        <v>794</v>
+        <v>799.125</v>
       </c>
       <c r="C53" t="n">
-        <v>79</v>
+        <v>71.625</v>
       </c>
       <c r="D53" t="n">
-        <v>138</v>
+        <v>126.875</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.8544401765751304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>315</v>
+        <v>316.75</v>
       </c>
       <c r="B54" t="n">
-        <v>207</v>
+        <v>208.5</v>
       </c>
       <c r="C54" t="n">
-        <v>47</v>
+        <v>45.75</v>
       </c>
       <c r="D54" t="n">
-        <v>64</v>
+        <v>65.25</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.9603545924649102</v>
       </c>
     </row>
     <row r="55">
@@ -1816,16 +1816,16 @@
         <v>59</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001262095077829196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1842,13 +1842,13 @@
         <v>74</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -1856,106 +1856,106 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1204</v>
+        <v>1216.5</v>
       </c>
       <c r="B57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" t="n">
-        <v>41</v>
+        <v>39.75</v>
       </c>
       <c r="D57" t="n">
-        <v>75</v>
+        <v>75.375</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.899108734402852</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>899</v>
+        <v>902.5</v>
       </c>
       <c r="B58" t="n">
-        <v>19</v>
+        <v>17.25</v>
       </c>
       <c r="C58" t="n">
-        <v>49</v>
+        <v>44.875</v>
       </c>
       <c r="D58" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.8774910160078406</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B59" t="n">
-        <v>132</v>
+        <v>133.625</v>
       </c>
       <c r="C59" t="n">
-        <v>65</v>
+        <v>63.625</v>
       </c>
       <c r="D59" t="n">
-        <v>47</v>
+        <v>42.875</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.9239739011594587</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B60" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C60" t="n">
-        <v>48</v>
+        <v>45.375</v>
       </c>
       <c r="D60" t="n">
-        <v>42</v>
+        <v>42.375</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.9554686755030037</v>
       </c>
     </row>
     <row r="61">
@@ -1972,68 +1972,68 @@
         <v>52</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01010793215692993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>432</v>
+        <v>431.125</v>
       </c>
       <c r="B62" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C62" t="n">
-        <v>59</v>
+        <v>58.25</v>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>40.625</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.9496936306060451</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1676</v>
+        <v>1680.25</v>
       </c>
       <c r="B63" t="n">
-        <v>60</v>
+        <v>64.5</v>
       </c>
       <c r="C63" t="n">
-        <v>44</v>
+        <v>35.875</v>
       </c>
       <c r="D63" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.8690600673870106</v>
       </c>
     </row>
     <row r="64">
@@ -2050,16 +2050,146 @@
         <v>33</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>840.25</v>
+      </c>
+      <c r="C65" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="D65" t="n">
+        <v>123.25</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.951921936172737</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>45</v>
+      </c>
+      <c r="B66" t="n">
+        <v>268</v>
+      </c>
+      <c r="C66" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="D66" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9590817302582634</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1234.25</v>
+      </c>
+      <c r="B67" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="C67" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="D67" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9181838122395262</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="B68" t="n">
+        <v>150.75</v>
+      </c>
+      <c r="C68" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="D68" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.8644752795365755</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9010884997633696</v>
       </c>
     </row>
   </sheetData>

--- a/bd/M_Kolomenskaya21_3_12_142_N.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_N.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -400,54 +400,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>185.2578125</v>
+        <v>183.45361328125</v>
       </c>
       <c r="B1" t="n">
-        <v>480.9453125</v>
+        <v>482.99658203125</v>
       </c>
       <c r="C1" t="n">
-        <v>69.296875</v>
+        <v>68.3310546875</v>
       </c>
       <c r="D1" t="n">
-        <v>34.71875</v>
+        <v>34.294921875</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8979335937169048</v>
+        <v>0.9182895242560734</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1005.3125</v>
+        <v>1006.14453125</v>
       </c>
       <c r="B2" t="n">
-        <v>852.875</v>
+        <v>854.4296875</v>
       </c>
       <c r="C2" t="n">
-        <v>74.46875</v>
+        <v>75.404296875</v>
       </c>
       <c r="D2" t="n">
-        <v>168.234375</v>
+        <v>166.1396484375</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8878999727588567</v>
+        <v>0.9501893415602342</v>
       </c>
     </row>
     <row r="3">
@@ -464,16 +464,16 @@
         <v>156.34375</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8961601267859359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,59 +499,59 @@
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09975470895448087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1178.75</v>
+        <v>1177.484375</v>
       </c>
       <c r="B5" t="n">
-        <v>837.3125</v>
+        <v>842.08203125</v>
       </c>
       <c r="C5" t="n">
-        <v>73.5</v>
+        <v>71.59375</v>
       </c>
       <c r="D5" t="n">
-        <v>132.25</v>
+        <v>130.203125</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01215109403645328</v>
+        <v>0.9277652041964088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1617.703125</v>
+        <v>1618.4814453125</v>
       </c>
       <c r="B6" t="n">
-        <v>773.015625</v>
+        <v>773.2509765625</v>
       </c>
       <c r="C6" t="n">
-        <v>70.734375</v>
+        <v>72.8583984375</v>
       </c>
       <c r="D6" t="n">
-        <v>113.03125</v>
+        <v>124.626953125</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9622953892589908</v>
+        <v>0.9204384159329372</v>
       </c>
     </row>
     <row r="7">
@@ -582,106 +582,106 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1312.96875</v>
+        <v>1314.498046875</v>
       </c>
       <c r="B8" t="n">
-        <v>822.90625</v>
+        <v>822.119140625</v>
       </c>
       <c r="C8" t="n">
-        <v>73.5625</v>
+        <v>78.53515625</v>
       </c>
       <c r="D8" t="n">
-        <v>137.625</v>
+        <v>142.7265625</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8342830924945973</v>
+        <v>0.9105751975280142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1740.75</v>
+        <v>1752.859375</v>
       </c>
       <c r="B9" t="n">
-        <v>750.203125</v>
+        <v>743.8251953125</v>
       </c>
       <c r="C9" t="n">
-        <v>63.46875</v>
+        <v>70.466796875</v>
       </c>
       <c r="D9" t="n">
-        <v>96.46875</v>
+        <v>106.966796875</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9430176930670514</v>
+        <v>0.8839437560750159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>458.75</v>
+        <v>451.71875</v>
       </c>
       <c r="B10" t="n">
-        <v>459.5</v>
+        <v>450.9375</v>
       </c>
       <c r="C10" t="n">
-        <v>96.75</v>
+        <v>88.71875</v>
       </c>
       <c r="D10" t="n">
-        <v>54.75</v>
+        <v>55.59375</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.909879158671464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1381.125</v>
+        <v>1383.1328125</v>
       </c>
       <c r="B11" t="n">
-        <v>26.484375</v>
+        <v>28.2177734375</v>
       </c>
       <c r="C11" t="n">
-        <v>39.28125</v>
+        <v>38.580078125</v>
       </c>
       <c r="D11" t="n">
-        <v>72.890625</v>
+        <v>69.4306640625</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8850476789963589</v>
+        <v>0.9107969711637607</v>
       </c>
     </row>
     <row r="12">
@@ -698,16 +698,16 @@
         <v>78.609375</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8926910539248701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -733,33 +733,33 @@
         <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1282554617298157</v>
+        <v>0.1035853274819906</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>313.171875</v>
+        <v>311.3857421875</v>
       </c>
       <c r="B14" t="n">
-        <v>458.90625</v>
+        <v>462.556640625</v>
       </c>
       <c r="C14" t="n">
-        <v>84.6875</v>
+        <v>83.73046875</v>
       </c>
       <c r="D14" t="n">
-        <v>47.078125</v>
+        <v>47.8173828125</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8429807358516935</v>
+        <v>0.9405914327656983</v>
       </c>
     </row>
     <row r="15">
@@ -776,42 +776,42 @@
         <v>41.609375</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9546601915109612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1022.78125</v>
+        <v>1029.611328125</v>
       </c>
       <c r="B16" t="n">
-        <v>12.640625</v>
+        <v>18.2275390625</v>
       </c>
       <c r="C16" t="n">
-        <v>44.65625</v>
+        <v>42.853515625</v>
       </c>
       <c r="D16" t="n">
-        <v>86.6875</v>
+        <v>78.66796875</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8627442779570057</v>
+        <v>0.9584501245175403</v>
       </c>
     </row>
     <row r="17">
@@ -828,42 +828,42 @@
         <v>54.375</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.006272273484952105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1866.21875</v>
+        <v>1867.201171875</v>
       </c>
       <c r="B18" t="n">
-        <v>150</v>
+        <v>149.625</v>
       </c>
       <c r="C18" t="n">
-        <v>29.84375</v>
+        <v>29.552734375</v>
       </c>
       <c r="D18" t="n">
-        <v>43.578125</v>
+        <v>42.6611328125</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9024517370933585</v>
+        <v>0.9078582983161854</v>
       </c>
     </row>
     <row r="19">
@@ -880,42 +880,42 @@
         <v>69.25</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1267664796423535</v>
+        <v>0.1018920642633705</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1533.9375</v>
+        <v>1533.96875</v>
       </c>
       <c r="B20" t="n">
-        <v>96.671875</v>
+        <v>95.3359375</v>
       </c>
       <c r="C20" t="n">
-        <v>40.484375</v>
+        <v>41.7421875</v>
       </c>
       <c r="D20" t="n">
-        <v>75.421875</v>
+        <v>78.2109375</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8562895003643789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.001789408017861247</v>
       </c>
     </row>
     <row r="22">
@@ -958,68 +958,68 @@
         <v>92.34375</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9108764154879926</v>
+        <v>0.001967954053912402</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>236.3125</v>
+        <v>241.328125</v>
       </c>
       <c r="B23" t="n">
-        <v>467.609375</v>
+        <v>479.15234375</v>
       </c>
       <c r="C23" t="n">
-        <v>80.671875</v>
+        <v>71.91796875</v>
       </c>
       <c r="D23" t="n">
-        <v>45.96875</v>
+        <v>44.7421875</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>0.898919832970977</v>
+        <v>0.7196825545324171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>397.5</v>
+        <v>398.53125</v>
       </c>
       <c r="B24" t="n">
-        <v>708.78125</v>
+        <v>714.486328125</v>
       </c>
       <c r="C24" t="n">
-        <v>126.71875</v>
+        <v>122.419921875</v>
       </c>
       <c r="D24" t="n">
-        <v>64.09375</v>
+        <v>64.005859375</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9031198461007071</v>
+        <v>0.9291401307218706</v>
       </c>
     </row>
     <row r="25">
@@ -1042,36 +1042,36 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05037643932683791</v>
+        <v>0.01963771512756981</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1615.40625</v>
+        <v>1616.212890625</v>
       </c>
       <c r="B26" t="n">
-        <v>53.28125</v>
+        <v>53.830078125</v>
       </c>
       <c r="C26" t="n">
-        <v>37.390625</v>
+        <v>36.3369140625</v>
       </c>
       <c r="D26" t="n">
-        <v>61.765625</v>
+        <v>62.4228515625</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9331625894269847</v>
+        <v>0.9639654409118705</v>
       </c>
     </row>
     <row r="27">
@@ -1094,10 +1094,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02107920918219618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1123,111 +1123,111 @@
         <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09536963000654212</v>
+        <v>0.06483739837398374</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="B29" t="n">
-        <v>128.5</v>
+        <v>124.46875</v>
       </c>
       <c r="C29" t="n">
-        <v>35.75</v>
+        <v>38.796875</v>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>54.0625</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03848127244740893</v>
+        <v>0.9606748035018212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>594.453125</v>
+        <v>593.4033203125</v>
       </c>
       <c r="B30" t="n">
-        <v>66.28125</v>
+        <v>64.455078125</v>
       </c>
       <c r="C30" t="n">
-        <v>51.125</v>
+        <v>46.1953125</v>
       </c>
       <c r="D30" t="n">
-        <v>40.875</v>
+        <v>39.9296875</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8675794784829738</v>
+        <v>0.8960699948624254</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1811.828125</v>
+        <v>1811.0517578125</v>
       </c>
       <c r="B31" t="n">
-        <v>138.140625</v>
+        <v>137.3212890625</v>
       </c>
       <c r="C31" t="n">
-        <v>33.59375</v>
+        <v>34.162109375</v>
       </c>
       <c r="D31" t="n">
-        <v>50.8125</v>
+        <v>53.17578125</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8972861811307605</v>
+        <v>0.9256338493486764</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.03125</v>
+        <v>9.064453125</v>
       </c>
       <c r="B32" t="n">
-        <v>497.578125</v>
+        <v>504.9736328125</v>
       </c>
       <c r="C32" t="n">
-        <v>73.734375</v>
+        <v>69.4833984375</v>
       </c>
       <c r="D32" t="n">
-        <v>32.125</v>
+        <v>32.5703125</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9184544020608347</v>
+        <v>0.9316357745877112</v>
       </c>
     </row>
     <row r="33">
@@ -1253,85 +1253,85 @@
         <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01320730725215106</v>
+        <v>0.002175605632549552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1743.34375</v>
+        <v>1743.833984375</v>
       </c>
       <c r="B34" t="n">
-        <v>74.40625</v>
+        <v>75.962890625</v>
       </c>
       <c r="C34" t="n">
-        <v>35.265625</v>
+        <v>34.5166015625</v>
       </c>
       <c r="D34" t="n">
-        <v>47.734375</v>
+        <v>49.0458984375</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8822074869580172</v>
+        <v>0.959387506873007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1465.1875</v>
+        <v>1464.1484375</v>
       </c>
       <c r="B35" t="n">
-        <v>35.09375</v>
+        <v>36.26171875</v>
       </c>
       <c r="C35" t="n">
-        <v>35.96875</v>
+        <v>35.99609375</v>
       </c>
       <c r="D35" t="n">
-        <v>63.578125</v>
+        <v>64.572265625</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G35" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9104224525000918</v>
+        <v>0.9589363709316864</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>85.390625</v>
+        <v>82.4619140625</v>
       </c>
       <c r="B36" t="n">
-        <v>493.296875</v>
+        <v>496.2060546875</v>
       </c>
       <c r="C36" t="n">
-        <v>71.5625</v>
+        <v>71.91015625</v>
       </c>
       <c r="D36" t="n">
-        <v>35.703125</v>
+        <v>38.1689453125</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8949040667588244</v>
+        <v>0.930168957015244</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0581468110709988</v>
+        <v>0.0325947691203854</v>
       </c>
     </row>
     <row r="38">
@@ -1374,7 +1374,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -1388,28 +1388,28 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1541.609375</v>
+        <v>1541.951171875</v>
       </c>
       <c r="B39" t="n">
-        <v>44.671875</v>
+        <v>44.958984375</v>
       </c>
       <c r="C39" t="n">
-        <v>33.5625</v>
+        <v>33.9453125</v>
       </c>
       <c r="D39" t="n">
-        <v>61.515625</v>
+        <v>62.689453125</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8852758865968906</v>
+        <v>0.9791774681409549</v>
       </c>
     </row>
     <row r="40">
@@ -1426,13 +1426,13 @@
         <v>60</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1440,28 +1440,28 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1833</v>
+        <v>1838.25</v>
       </c>
       <c r="B41" t="n">
-        <v>100.75</v>
+        <v>95.6875</v>
       </c>
       <c r="C41" t="n">
-        <v>28.5</v>
+        <v>33.375</v>
       </c>
       <c r="D41" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04324644549763033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1478,68 +1478,68 @@
         <v>67.59375</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9186083588048342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1793.296875</v>
+        <v>1794.537109375</v>
       </c>
       <c r="B43" t="n">
-        <v>85.578125</v>
+        <v>86.822265625</v>
       </c>
       <c r="C43" t="n">
-        <v>34.25</v>
+        <v>32.65625</v>
       </c>
       <c r="D43" t="n">
-        <v>46.171875</v>
+        <v>42.521484375</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8769294952023362</v>
+        <v>0.8115513988543975</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.59375</v>
+        <v>41.599609375</v>
       </c>
       <c r="B44" t="n">
-        <v>493.09375</v>
+        <v>499.380859375</v>
       </c>
       <c r="C44" t="n">
-        <v>75.125</v>
+        <v>72.6953125</v>
       </c>
       <c r="D44" t="n">
-        <v>34.59375</v>
+        <v>35.037109375</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9535649379350259</v>
+        <v>0.9238797067660501</v>
       </c>
     </row>
     <row r="45">
@@ -1634,7 +1634,7 @@
         <v>48.5</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -1643,137 +1643,137 @@
         <v>6.5</v>
       </c>
       <c r="H48" t="n">
-        <v>0.06218607988519493</v>
+        <v>0.02306486994672517</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>803.875</v>
+        <v>794.6171875</v>
       </c>
       <c r="B49" t="n">
-        <v>28.5</v>
+        <v>32.21875</v>
       </c>
       <c r="C49" t="n">
-        <v>39.5</v>
+        <v>40.34375</v>
       </c>
       <c r="D49" t="n">
-        <v>84.25</v>
+        <v>79.640625</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7889643121177499</v>
+        <v>0.9184324581654271</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>802.0625</v>
+        <v>794.50390625</v>
       </c>
       <c r="B50" t="n">
-        <v>28</v>
+        <v>32.1875</v>
       </c>
       <c r="C50" t="n">
-        <v>40.625</v>
+        <v>40.4140625</v>
       </c>
       <c r="D50" t="n">
-        <v>82.625</v>
+        <v>79.5390625</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8867808519982433</v>
+        <v>0.9255588821764217</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>313</v>
+        <v>320.5625</v>
       </c>
       <c r="B51" t="n">
-        <v>153</v>
+        <v>157.375</v>
       </c>
       <c r="C51" t="n">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="D51" t="n">
-        <v>48</v>
+        <v>38.9375</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>0.09041769041769042</v>
+        <v>0.8800919276070095</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>313</v>
+        <v>320.5625</v>
       </c>
       <c r="B52" t="n">
-        <v>153</v>
+        <v>157.375</v>
       </c>
       <c r="C52" t="n">
-        <v>57</v>
+        <v>52.5625</v>
       </c>
       <c r="D52" t="n">
-        <v>48</v>
+        <v>38.9375</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>0.09719713182497834</v>
+        <v>0.8820213827717185</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1469.75</v>
+        <v>1470.359375</v>
       </c>
       <c r="B53" t="n">
-        <v>799.125</v>
+        <v>799.9453125</v>
       </c>
       <c r="C53" t="n">
-        <v>71.625</v>
+        <v>75.6640625</v>
       </c>
       <c r="D53" t="n">
-        <v>126.875</v>
+        <v>134.7421875</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8544401765751304</v>
+        <v>0.9036881749940449</v>
       </c>
     </row>
     <row r="54">
@@ -1790,16 +1790,16 @@
         <v>65.25</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9603545924649102</v>
+        <v>0.01441887377371641</v>
       </c>
     </row>
     <row r="55">
@@ -1822,88 +1822,88 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.00558299334335409</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1302</v>
+        <v>1307.375</v>
       </c>
       <c r="B56" t="n">
-        <v>16</v>
+        <v>23.625</v>
       </c>
       <c r="C56" t="n">
-        <v>47</v>
+        <v>37.9375</v>
       </c>
       <c r="D56" t="n">
-        <v>74</v>
+        <v>66.375</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.8825902409934402</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1216.5</v>
+        <v>1218.21875</v>
       </c>
       <c r="B57" t="n">
-        <v>17</v>
+        <v>18.25</v>
       </c>
       <c r="C57" t="n">
-        <v>39.75</v>
+        <v>39.859375</v>
       </c>
       <c r="D57" t="n">
-        <v>75.375</v>
+        <v>78.4609375</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>0.899108734402852</v>
+        <v>0.9552083891410188</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>902.5</v>
+        <v>897.28125</v>
       </c>
       <c r="B58" t="n">
-        <v>17.25</v>
+        <v>19.015625</v>
       </c>
       <c r="C58" t="n">
-        <v>44.875</v>
+        <v>46.2421875</v>
       </c>
       <c r="D58" t="n">
-        <v>80</v>
+        <v>85.5</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8774910160078406</v>
+        <v>0.9176601211092332</v>
       </c>
     </row>
     <row r="59">
@@ -1929,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9239739011594587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1946,42 +1946,42 @@
         <v>42.375</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9554686755030037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>471</v>
+        <v>481.5625</v>
       </c>
       <c r="B61" t="n">
-        <v>120</v>
+        <v>126.875</v>
       </c>
       <c r="C61" t="n">
-        <v>68</v>
+        <v>57.25</v>
       </c>
       <c r="D61" t="n">
-        <v>52</v>
+        <v>43.125</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.9140988372093023</v>
       </c>
     </row>
     <row r="62">
@@ -1998,42 +1998,42 @@
         <v>40.625</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9496936306060451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1680.25</v>
+        <v>1682.515625</v>
       </c>
       <c r="B63" t="n">
-        <v>64.5</v>
+        <v>66.28125</v>
       </c>
       <c r="C63" t="n">
-        <v>35.875</v>
+        <v>33.3671875</v>
       </c>
       <c r="D63" t="n">
-        <v>56</v>
+        <v>53.6875</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G63" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8690600673870106</v>
+        <v>0.9029467359121249</v>
       </c>
     </row>
     <row r="64">
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2076,42 +2076,42 @@
         <v>123.25</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>0.951921936172737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>45</v>
+        <v>44.125</v>
       </c>
       <c r="B66" t="n">
-        <v>268</v>
+        <v>269.125</v>
       </c>
       <c r="C66" t="n">
-        <v>47.75</v>
+        <v>48.546875</v>
       </c>
       <c r="D66" t="n">
-        <v>48.25</v>
+        <v>47.140625</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9590817302582634</v>
+        <v>0.9359476756940774</v>
       </c>
     </row>
     <row r="67">
@@ -2128,16 +2128,16 @@
         <v>92.5</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9181838122395262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2163,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8644752795365755</v>
+        <v>0.06985509367681499</v>
       </c>
     </row>
     <row r="69">
@@ -2180,16 +2180,68 @@
         <v>14.5</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9010884997633696</v>
+        <v>0.1259866163349348</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B70" t="n">
+        <v>63</v>
+      </c>
+      <c r="C70" t="n">
+        <v>36</v>
+      </c>
+      <c r="D70" t="n">
+        <v>61</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.1405617945744109</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>469</v>
+      </c>
+      <c r="B71" t="n">
+        <v>760</v>
+      </c>
+      <c r="C71" t="n">
+        <v>138</v>
+      </c>
+      <c r="D71" t="n">
+        <v>73</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bd/M_Kolomenskaya21_3_12_142_N.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_N.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -400,54 +400,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>183.45361328125</v>
+        <v>181.977594435215</v>
       </c>
       <c r="B1" t="n">
-        <v>482.99658203125</v>
+        <v>478.6279292702675</v>
       </c>
       <c r="C1" t="n">
-        <v>68.3310546875</v>
+        <v>72.93815076351166</v>
       </c>
       <c r="D1" t="n">
-        <v>34.294921875</v>
+        <v>38.09134459495544</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9182895242560734</v>
+        <v>0.9472959018913657</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1006.14453125</v>
+        <v>1009.630388736725</v>
       </c>
       <c r="B2" t="n">
-        <v>854.4296875</v>
+        <v>852.6487340927124</v>
       </c>
       <c r="C2" t="n">
-        <v>75.404296875</v>
+        <v>69.44743704795837</v>
       </c>
       <c r="D2" t="n">
-        <v>166.1396484375</v>
+        <v>144.6141527891159</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9501893415602342</v>
+        <v>0.9788473864273169</v>
       </c>
     </row>
     <row r="3">
@@ -464,13 +464,13 @@
         <v>156.34375</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -496,62 +496,62 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.1462086383457311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1177.484375</v>
+        <v>1163.493955612183</v>
       </c>
       <c r="B5" t="n">
-        <v>842.08203125</v>
+        <v>831.9387307167053</v>
       </c>
       <c r="C5" t="n">
-        <v>71.59375</v>
+        <v>81.22468185424805</v>
       </c>
       <c r="D5" t="n">
-        <v>130.203125</v>
+        <v>168.1279544830323</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>12.5</v>
+        <v>24.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9277652041964088</v>
+        <v>0.9841025413576714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1618.4814453125</v>
+        <v>1645.11480486393</v>
       </c>
       <c r="B6" t="n">
-        <v>773.2509765625</v>
+        <v>767.9413148164749</v>
       </c>
       <c r="C6" t="n">
-        <v>72.8583984375</v>
+        <v>64.68113505840302</v>
       </c>
       <c r="D6" t="n">
-        <v>124.626953125</v>
+        <v>101.2126009464264</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9204384159329372</v>
+        <v>0.9706849418495102</v>
       </c>
     </row>
     <row r="7">
@@ -574,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -600,36 +600,36 @@
         <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9105751975280142</v>
+        <v>0.05088123831147109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1752.859375</v>
+        <v>1753.243757247925</v>
       </c>
       <c r="B9" t="n">
-        <v>743.8251953125</v>
+        <v>745.8199249505997</v>
       </c>
       <c r="C9" t="n">
-        <v>70.466796875</v>
+        <v>60.08672690391541</v>
       </c>
       <c r="D9" t="n">
-        <v>106.966796875</v>
+        <v>88.62499594688416</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8839437560750159</v>
+        <v>0.9826389726438407</v>
       </c>
     </row>
     <row r="10">
@@ -652,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.909879158671464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -681,33 +681,33 @@
         <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9107969711637607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>714.453125</v>
+        <v>698.9848160743713</v>
       </c>
       <c r="B12" t="n">
-        <v>36.5625</v>
+        <v>36.06257820129395</v>
       </c>
       <c r="C12" t="n">
-        <v>41.453125</v>
+        <v>42.04676675796509</v>
       </c>
       <c r="D12" t="n">
-        <v>78.609375</v>
+        <v>79.99202299118042</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.9909092222423252</v>
       </c>
     </row>
     <row r="13">
@@ -730,88 +730,88 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1035853274819906</v>
+        <v>0.1330292195783504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>311.3857421875</v>
+        <v>312.1238263845444</v>
       </c>
       <c r="B14" t="n">
-        <v>462.556640625</v>
+        <v>457.0075142383575</v>
       </c>
       <c r="C14" t="n">
-        <v>83.73046875</v>
+        <v>94.06661748886108</v>
       </c>
       <c r="D14" t="n">
-        <v>47.8173828125</v>
+        <v>52.71848356723785</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9405914327656983</v>
+        <v>0.9876772741613178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>124.484375</v>
+        <v>125.2186870574951</v>
       </c>
       <c r="B15" t="n">
-        <v>480.71875</v>
+        <v>477.2427635192871</v>
       </c>
       <c r="C15" t="n">
-        <v>80.25</v>
+        <v>83.96829223632812</v>
       </c>
       <c r="D15" t="n">
-        <v>41.609375</v>
+        <v>42.40217399597168</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.9618756201611863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1029.611328125</v>
+        <v>1034.992053568363</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2275390625</v>
+        <v>14.98789146542549</v>
       </c>
       <c r="C16" t="n">
-        <v>42.853515625</v>
+        <v>40.17425090074539</v>
       </c>
       <c r="D16" t="n">
-        <v>78.66796875</v>
+        <v>75.14479577541351</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9584501245175403</v>
+        <v>0.9875495609752836</v>
       </c>
     </row>
     <row r="17">
@@ -828,91 +828,91 @@
         <v>54.375</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006272273484952105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1867.201171875</v>
+        <v>1865.139795064927</v>
       </c>
       <c r="B18" t="n">
-        <v>149.625</v>
+        <v>150.9687042236328</v>
       </c>
       <c r="C18" t="n">
-        <v>29.552734375</v>
+        <v>27.09381747245789</v>
       </c>
       <c r="D18" t="n">
-        <v>42.6611328125</v>
+        <v>45.69539320468903</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9078582983161854</v>
+        <v>0.9800357238673337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1641</v>
+        <v>1533.96875</v>
       </c>
       <c r="B19" t="n">
-        <v>109.5</v>
+        <v>95.3359375</v>
       </c>
       <c r="C19" t="n">
-        <v>41</v>
+        <v>41.7421875</v>
       </c>
       <c r="D19" t="n">
-        <v>69.25</v>
+        <v>78.2109375</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1018920642633705</v>
+        <v>0.08059921934505086</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1533.96875</v>
+        <v>137.75</v>
       </c>
       <c r="B20" t="n">
-        <v>95.3359375</v>
+        <v>252.75</v>
       </c>
       <c r="C20" t="n">
-        <v>41.7421875</v>
+        <v>38.75</v>
       </c>
       <c r="D20" t="n">
-        <v>78.2109375</v>
+        <v>59.25</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -920,588 +920,588 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>137.75</v>
+        <v>115.203125</v>
       </c>
       <c r="B21" t="n">
-        <v>252.75</v>
+        <v>816.53125</v>
       </c>
       <c r="C21" t="n">
-        <v>38.75</v>
+        <v>74.4375</v>
       </c>
       <c r="D21" t="n">
-        <v>59.25</v>
+        <v>92.34375</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001789408017861247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>115.203125</v>
+        <v>241.2441806793213</v>
       </c>
       <c r="B22" t="n">
-        <v>816.53125</v>
+        <v>471.2010684013367</v>
       </c>
       <c r="C22" t="n">
-        <v>74.4375</v>
+        <v>74.86510229110718</v>
       </c>
       <c r="D22" t="n">
-        <v>92.34375</v>
+        <v>46.04574489593506</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001967954053912402</v>
+        <v>0.9701989477550438</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>241.328125</v>
+        <v>398.53125</v>
       </c>
       <c r="B23" t="n">
-        <v>479.15234375</v>
+        <v>714.486328125</v>
       </c>
       <c r="C23" t="n">
-        <v>71.91796875</v>
+        <v>122.419921875</v>
       </c>
       <c r="D23" t="n">
-        <v>44.7421875</v>
+        <v>64.005859375</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
         <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7196825545324171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>398.53125</v>
+        <v>1623.810939073563</v>
       </c>
       <c r="B24" t="n">
-        <v>714.486328125</v>
+        <v>52.02866578102112</v>
       </c>
       <c r="C24" t="n">
-        <v>122.419921875</v>
+        <v>39.1764327287674</v>
       </c>
       <c r="D24" t="n">
-        <v>64.005859375</v>
+        <v>58.46452915668488</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9291401307218706</v>
+        <v>0.9725804917162912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>572.5</v>
+        <v>673</v>
       </c>
       <c r="B25" t="n">
-        <v>105.75</v>
+        <v>42</v>
       </c>
       <c r="C25" t="n">
-        <v>50.75</v>
+        <v>52.25</v>
       </c>
       <c r="D25" t="n">
-        <v>38.75</v>
+        <v>44.25</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01963771512756981</v>
+        <v>0.1704471983265242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1616.212890625</v>
+        <v>1711.25</v>
       </c>
       <c r="B26" t="n">
-        <v>53.830078125</v>
+        <v>121.25</v>
       </c>
       <c r="C26" t="n">
-        <v>36.3369140625</v>
+        <v>35.75</v>
       </c>
       <c r="D26" t="n">
-        <v>62.4228515625</v>
+        <v>51</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9639654409118705</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>673</v>
+        <v>1756.875</v>
       </c>
       <c r="B27" t="n">
-        <v>42</v>
+        <v>122.5617027282715</v>
       </c>
       <c r="C27" t="n">
-        <v>52.25</v>
+        <v>36.66489219665527</v>
       </c>
       <c r="D27" t="n">
-        <v>44.25</v>
+        <v>51.68750762939453</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.9390593318004896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1711.25</v>
+        <v>593.4033203125</v>
       </c>
       <c r="B28" t="n">
-        <v>121.25</v>
+        <v>64.455078125</v>
       </c>
       <c r="C28" t="n">
-        <v>35.75</v>
+        <v>46.1953125</v>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>39.9296875</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06483739837398374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1755</v>
+        <v>1812.166021943092</v>
       </c>
       <c r="B29" t="n">
-        <v>124.46875</v>
+        <v>136.7187892198563</v>
       </c>
       <c r="C29" t="n">
-        <v>38.796875</v>
+        <v>34.28126978874207</v>
       </c>
       <c r="D29" t="n">
-        <v>54.0625</v>
+        <v>50.17030954360962</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9606748035018212</v>
+        <v>0.9643221724672419</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>593.4033203125</v>
+        <v>7.97559380531311</v>
       </c>
       <c r="B30" t="n">
-        <v>64.455078125</v>
+        <v>493.8386198282242</v>
       </c>
       <c r="C30" t="n">
-        <v>46.1953125</v>
+        <v>75.11260783672333</v>
       </c>
       <c r="D30" t="n">
-        <v>39.9296875</v>
+        <v>33.0585412979126</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8960699948624254</v>
+        <v>0.9909087974142025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1811.0517578125</v>
+        <v>1108.625</v>
       </c>
       <c r="B31" t="n">
-        <v>137.3212890625</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>34.162109375</v>
+        <v>43.75</v>
       </c>
       <c r="D31" t="n">
-        <v>53.17578125</v>
+        <v>83.25</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9256338493486764</v>
+        <v>0.008349542198396509</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.064453125</v>
+        <v>1744.038553953171</v>
       </c>
       <c r="B32" t="n">
-        <v>504.9736328125</v>
+        <v>74.6216995716095</v>
       </c>
       <c r="C32" t="n">
-        <v>69.4833984375</v>
+        <v>33.44098103046417</v>
       </c>
       <c r="D32" t="n">
-        <v>32.5703125</v>
+        <v>50.71362864971161</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9316357745877112</v>
+        <v>0.9633132522650077</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1108.625</v>
+        <v>1464.1484375</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>36.26171875</v>
       </c>
       <c r="C33" t="n">
-        <v>43.75</v>
+        <v>35.99609375</v>
       </c>
       <c r="D33" t="n">
-        <v>83.25</v>
+        <v>64.572265625</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002175605632549552</v>
+        <v>0.08069268183125018</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1743.833984375</v>
+        <v>81.50786888599396</v>
       </c>
       <c r="B34" t="n">
-        <v>75.962890625</v>
+        <v>492.0626472234726</v>
       </c>
       <c r="C34" t="n">
-        <v>34.5166015625</v>
+        <v>72.62547731399536</v>
       </c>
       <c r="D34" t="n">
-        <v>49.0458984375</v>
+        <v>37.52345812320709</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H34" t="n">
-        <v>0.959387506873007</v>
+        <v>0.9394552480241158</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1464.1484375</v>
+        <v>631</v>
       </c>
       <c r="B35" t="n">
-        <v>36.26171875</v>
+        <v>55</v>
       </c>
       <c r="C35" t="n">
-        <v>35.99609375</v>
+        <v>48.75</v>
       </c>
       <c r="D35" t="n">
-        <v>64.572265625</v>
+        <v>39.75</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9589363709316864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>82.4619140625</v>
+        <v>273</v>
       </c>
       <c r="B36" t="n">
-        <v>496.2060546875</v>
+        <v>164</v>
       </c>
       <c r="C36" t="n">
-        <v>71.91015625</v>
+        <v>50.25</v>
       </c>
       <c r="D36" t="n">
-        <v>38.1689453125</v>
+        <v>38</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>0.930168957015244</v>
+        <v>0.7173434985090856</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>631</v>
+        <v>1541.951171875</v>
       </c>
       <c r="B37" t="n">
-        <v>55</v>
+        <v>44.958984375</v>
       </c>
       <c r="C37" t="n">
-        <v>48.75</v>
+        <v>33.9453125</v>
       </c>
       <c r="D37" t="n">
-        <v>39.75</v>
+        <v>62.689453125</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0325947691203854</v>
+        <v>0.08250872968513372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>275</v>
+        <v>1841.964752197266</v>
       </c>
       <c r="B38" t="n">
-        <v>163</v>
+        <v>96.41365814208984</v>
       </c>
       <c r="C38" t="n">
-        <v>53.5</v>
+        <v>33.43363952636719</v>
       </c>
       <c r="D38" t="n">
-        <v>41</v>
+        <v>42.1627197265625</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.9494553333650996</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1541.951171875</v>
+        <v>42.4375</v>
       </c>
       <c r="B39" t="n">
-        <v>44.958984375</v>
+        <v>808.03125</v>
       </c>
       <c r="C39" t="n">
-        <v>33.9453125</v>
+        <v>56.078125</v>
       </c>
       <c r="D39" t="n">
-        <v>62.689453125</v>
+        <v>67.59375</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9791774681409549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>214</v>
+        <v>1796.031437635422</v>
       </c>
       <c r="B40" t="n">
-        <v>130</v>
+        <v>84.1462185382843</v>
       </c>
       <c r="C40" t="n">
-        <v>36</v>
+        <v>33.94746780395508</v>
       </c>
       <c r="D40" t="n">
-        <v>60</v>
+        <v>45.87445330619812</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>25.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.98061268719143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1838.25</v>
+        <v>41.94135737419128</v>
       </c>
       <c r="B41" t="n">
-        <v>95.6875</v>
+        <v>492.1572730541229</v>
       </c>
       <c r="C41" t="n">
-        <v>33.375</v>
+        <v>75.71346378326416</v>
       </c>
       <c r="D41" t="n">
-        <v>38</v>
+        <v>35.0916793346405</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.9695875786781457</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>42.4375</v>
+        <v>234.0311279296875</v>
       </c>
       <c r="B42" t="n">
-        <v>808.03125</v>
+        <v>172.8593139648438</v>
       </c>
       <c r="C42" t="n">
-        <v>56.078125</v>
+        <v>45.174072265625</v>
       </c>
       <c r="D42" t="n">
-        <v>67.59375</v>
+        <v>36.755126953125</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G42" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.9792875992013067</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1794.537109375</v>
+        <v>170.19140625</v>
       </c>
       <c r="B43" t="n">
-        <v>86.822265625</v>
+        <v>181.080078125</v>
       </c>
       <c r="C43" t="n">
-        <v>32.65625</v>
+        <v>57.634765625</v>
       </c>
       <c r="D43" t="n">
-        <v>42.521484375</v>
+        <v>36.998046875</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1510,108 +1510,108 @@
         <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8115513988543975</v>
+        <v>0.9674075625922425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>41.599609375</v>
+        <v>127</v>
       </c>
       <c r="B44" t="n">
-        <v>499.380859375</v>
+        <v>178.75</v>
       </c>
       <c r="C44" t="n">
-        <v>72.6953125</v>
+        <v>74.25</v>
       </c>
       <c r="D44" t="n">
-        <v>35.037109375</v>
+        <v>48.5</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9238797067660501</v>
+        <v>0.08825141659899852</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>236</v>
+        <v>800.2462346553802</v>
       </c>
       <c r="B45" t="n">
-        <v>166.5</v>
+        <v>24.92072200775146</v>
       </c>
       <c r="C45" t="n">
-        <v>58</v>
+        <v>42.46219921112061</v>
       </c>
       <c r="D45" t="n">
-        <v>39</v>
+        <v>80.83113527297974</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.9707881091180701</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>175.5</v>
+        <v>800.2462311983109</v>
       </c>
       <c r="B46" t="n">
-        <v>175.25</v>
+        <v>24.92072105407715</v>
       </c>
       <c r="C46" t="n">
-        <v>60.25</v>
+        <v>42.46220135688782</v>
       </c>
       <c r="D46" t="n">
-        <v>33.75</v>
+        <v>80.83113217353821</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.970788251108752</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>205</v>
+        <v>320.5625</v>
       </c>
       <c r="B47" t="n">
-        <v>172.25</v>
+        <v>157.375</v>
       </c>
       <c r="C47" t="n">
-        <v>59</v>
+        <v>52.5</v>
       </c>
       <c r="D47" t="n">
-        <v>32.5</v>
+        <v>38.9375</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
         <v>7</v>
@@ -1622,42 +1622,42 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>127</v>
+        <v>320.5625</v>
       </c>
       <c r="B48" t="n">
-        <v>178.75</v>
+        <v>157.375</v>
       </c>
       <c r="C48" t="n">
-        <v>74.25</v>
+        <v>52.5625</v>
       </c>
       <c r="D48" t="n">
-        <v>48.5</v>
+        <v>38.9375</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02306486994672517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>794.6171875</v>
+        <v>1470.359375</v>
       </c>
       <c r="B49" t="n">
-        <v>32.21875</v>
+        <v>799.9453125</v>
       </c>
       <c r="C49" t="n">
-        <v>40.34375</v>
+        <v>75.6640625</v>
       </c>
       <c r="D49" t="n">
-        <v>79.640625</v>
+        <v>134.7421875</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1666,345 +1666,345 @@
         <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9184324581654271</v>
+        <v>0.07895743090433205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>794.50390625</v>
+        <v>1315.241283416748</v>
       </c>
       <c r="B50" t="n">
-        <v>32.1875</v>
+        <v>19.37434768676758</v>
       </c>
       <c r="C50" t="n">
-        <v>40.4140625</v>
+        <v>38.52075004577637</v>
       </c>
       <c r="D50" t="n">
-        <v>79.5390625</v>
+        <v>66.81315231323242</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9255588821764217</v>
+        <v>0.9668651124396417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>320.5625</v>
+        <v>1234.29590511322</v>
       </c>
       <c r="B51" t="n">
-        <v>157.375</v>
+        <v>17.76825714111328</v>
       </c>
       <c r="C51" t="n">
-        <v>52.5</v>
+        <v>37.2886004447937</v>
       </c>
       <c r="D51" t="n">
-        <v>38.9375</v>
+        <v>68.76438784599304</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8800919276070095</v>
+        <v>0.9746195195905736</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>320.5625</v>
+        <v>896.7655725479126</v>
       </c>
       <c r="B52" t="n">
-        <v>157.375</v>
+        <v>16.01983690261841</v>
       </c>
       <c r="C52" t="n">
-        <v>52.5625</v>
+        <v>42.46146368980408</v>
       </c>
       <c r="D52" t="n">
-        <v>38.9375</v>
+        <v>77.17616271972656</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8820213827717185</v>
+        <v>0.9693289751292606</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1470.359375</v>
+        <v>389.25</v>
       </c>
       <c r="B53" t="n">
-        <v>799.9453125</v>
+        <v>138.40625</v>
       </c>
       <c r="C53" t="n">
-        <v>75.6640625</v>
+        <v>57.65625</v>
       </c>
       <c r="D53" t="n">
-        <v>134.7421875</v>
+        <v>33.96875</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9036881749940449</v>
+        <v>0.04556971233301528</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>316.75</v>
+        <v>0.281890869140625</v>
       </c>
       <c r="B54" t="n">
-        <v>208.5</v>
+        <v>284.0101318359375</v>
       </c>
       <c r="C54" t="n">
-        <v>45.75</v>
+        <v>41.81803894042969</v>
       </c>
       <c r="D54" t="n">
-        <v>65.25</v>
+        <v>45.20207214355469</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01441887377371641</v>
+        <v>0.9584775566566122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>231</v>
+        <v>481.5625</v>
       </c>
       <c r="B55" t="n">
-        <v>230</v>
+        <v>126.875</v>
       </c>
       <c r="C55" t="n">
-        <v>43</v>
+        <v>57.25</v>
       </c>
       <c r="D55" t="n">
-        <v>59</v>
+        <v>43.125</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00558299334335409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1307.375</v>
+        <v>419.2031402587891</v>
       </c>
       <c r="B56" t="n">
-        <v>23.625</v>
+        <v>129.994384765625</v>
       </c>
       <c r="C56" t="n">
-        <v>37.9375</v>
+        <v>57.27896118164062</v>
       </c>
       <c r="D56" t="n">
-        <v>66.375</v>
+        <v>48.87312316894531</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8825902409934402</v>
+        <v>0.9637488595321368</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1218.21875</v>
+        <v>1685.406190872192</v>
       </c>
       <c r="B57" t="n">
-        <v>18.25</v>
+        <v>64.22879409790039</v>
       </c>
       <c r="C57" t="n">
-        <v>39.859375</v>
+        <v>33.87248134613037</v>
       </c>
       <c r="D57" t="n">
-        <v>78.4609375</v>
+        <v>53.52901458740234</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9552083891410188</v>
+        <v>0.9636914593014837</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>897.28125</v>
+        <v>1894.389892578125</v>
       </c>
       <c r="B58" t="n">
-        <v>19.015625</v>
+        <v>716.2152099609375</v>
       </c>
       <c r="C58" t="n">
-        <v>46.2421875</v>
+        <v>56.1680908203125</v>
       </c>
       <c r="D58" t="n">
-        <v>85.5</v>
+        <v>24.5792236328125</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9176601211092332</v>
+        <v>0.9295253455919543</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>387</v>
+        <v>306.5</v>
       </c>
       <c r="B59" t="n">
-        <v>133.625</v>
+        <v>840.25</v>
       </c>
       <c r="C59" t="n">
-        <v>63.625</v>
+        <v>66.75</v>
       </c>
       <c r="D59" t="n">
-        <v>42.875</v>
+        <v>123.25</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.06577236460441176</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.25</v>
+        <v>47.97265625</v>
       </c>
       <c r="B60" t="n">
-        <v>282</v>
+        <v>269.53515625</v>
       </c>
       <c r="C60" t="n">
-        <v>45.375</v>
+        <v>41.67333984375</v>
       </c>
       <c r="D60" t="n">
-        <v>42.375</v>
+        <v>53.75439453125</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.9577489122162828</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>481.5625</v>
+        <v>352.25</v>
       </c>
       <c r="B61" t="n">
-        <v>126.875</v>
+        <v>150.75</v>
       </c>
       <c r="C61" t="n">
-        <v>57.25</v>
+        <v>48.75</v>
       </c>
       <c r="D61" t="n">
-        <v>43.125</v>
+        <v>35.5</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9140988372093023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>431.125</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>130</v>
+        <v>500.968017578125</v>
       </c>
       <c r="C62" t="n">
-        <v>58.25</v>
+        <v>69.9527587890625</v>
       </c>
       <c r="D62" t="n">
-        <v>40.625</v>
+        <v>15.006103515625</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2012,129 +2012,129 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1682.515625</v>
+        <v>1502</v>
       </c>
       <c r="B63" t="n">
-        <v>66.28125</v>
+        <v>63</v>
       </c>
       <c r="C63" t="n">
-        <v>33.3671875</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
-        <v>53.6875</v>
+        <v>61</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9029467359121249</v>
+        <v>0.2543896568897758</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1885</v>
+        <v>368.061767578125</v>
       </c>
       <c r="B64" t="n">
-        <v>722</v>
+        <v>68.601318359375</v>
       </c>
       <c r="C64" t="n">
-        <v>58</v>
+        <v>40.27392578125</v>
       </c>
       <c r="D64" t="n">
-        <v>33</v>
+        <v>71.32470703125</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.9622653415647453</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>306.5</v>
+        <v>459.23193359375</v>
       </c>
       <c r="B65" t="n">
-        <v>840.25</v>
+        <v>62.875</v>
       </c>
       <c r="C65" t="n">
-        <v>66.75</v>
+        <v>34.0654296875</v>
       </c>
       <c r="D65" t="n">
-        <v>123.25</v>
+        <v>67.62255859375</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.978319874752996</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>44.125</v>
+        <v>1476.2265625</v>
       </c>
       <c r="B66" t="n">
-        <v>269.125</v>
+        <v>88.0302734375</v>
       </c>
       <c r="C66" t="n">
-        <v>48.546875</v>
+        <v>40.06591796875</v>
       </c>
       <c r="D66" t="n">
-        <v>47.140625</v>
+        <v>71.764892578125</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9359476756940774</v>
+        <v>0.987248221720644</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1234.25</v>
+        <v>286.25</v>
       </c>
       <c r="B67" t="n">
-        <v>64.75</v>
+        <v>928</v>
       </c>
       <c r="C67" t="n">
-        <v>47.25</v>
+        <v>76.625</v>
       </c>
       <c r="D67" t="n">
-        <v>92.5</v>
+        <v>138.375</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2142,108 +2142,57 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>352.25</v>
+        <v>1834</v>
       </c>
       <c r="B68" t="n">
-        <v>150.75</v>
+        <v>790</v>
       </c>
       <c r="C68" t="n">
-        <v>48.75</v>
+        <v>62</v>
       </c>
       <c r="D68" t="n">
-        <v>35.5</v>
+        <v>77</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06985509367681499</v>
+        <v>0.01281794512317244</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B69" t="n">
-        <v>503.5</v>
+        <v>205.5</v>
       </c>
       <c r="C69" t="n">
-        <v>69.25</v>
+        <v>44.5</v>
       </c>
       <c r="D69" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1259866163349348</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1502</v>
-      </c>
-      <c r="B70" t="n">
-        <v>63</v>
-      </c>
-      <c r="C70" t="n">
-        <v>36</v>
-      </c>
-      <c r="D70" t="n">
-        <v>61</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.1405617945744109</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>469</v>
-      </c>
-      <c r="B71" t="n">
-        <v>760</v>
-      </c>
-      <c r="C71" t="n">
-        <v>138</v>
-      </c>
-      <c r="D71" t="n">
-        <v>73</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>0.05330926299443312</v>
+      </c>
+    </row>
+    <row r="70"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
   <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>

--- a/bd/M_Kolomenskaya21_3_12_142_N.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_N.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -400,54 +400,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>181.977594435215</v>
+        <v>184.4887972176075</v>
       </c>
       <c r="B1" t="n">
-        <v>478.6279292702675</v>
+        <v>481.3139646351337</v>
       </c>
       <c r="C1" t="n">
-        <v>72.93815076351166</v>
+        <v>70.96907538175583</v>
       </c>
       <c r="D1" t="n">
-        <v>38.09134459495544</v>
+        <v>35.54567229747772</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9472959018913657</v>
+        <v>0.789091064120592</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1009.630388736725</v>
+        <v>1002.315194368362</v>
       </c>
       <c r="B2" t="n">
-        <v>852.6487340927124</v>
+        <v>853.8243670463562</v>
       </c>
       <c r="C2" t="n">
-        <v>69.44743704795837</v>
+        <v>71.22371852397919</v>
       </c>
       <c r="D2" t="n">
-        <v>144.6141527891159</v>
+        <v>150.807076394558</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9788473864273169</v>
+        <v>0.7992599021494953</v>
       </c>
     </row>
     <row r="3">
@@ -464,13 +464,13 @@
         <v>156.34375</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -499,33 +499,33 @@
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1462086383457311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1163.493955612183</v>
+        <v>1164.746977806092</v>
       </c>
       <c r="B5" t="n">
-        <v>831.9387307167053</v>
+        <v>833.9693653583527</v>
       </c>
       <c r="C5" t="n">
-        <v>81.22468185424805</v>
+        <v>79.61234092712402</v>
       </c>
       <c r="D5" t="n">
-        <v>168.1279544830323</v>
+        <v>168.5639772415162</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9841025413576714</v>
+        <v>0.9090753324802532</v>
       </c>
     </row>
     <row r="6">
@@ -542,42 +542,42 @@
         <v>101.2126009464264</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9706849418495102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B7" t="n">
-        <v>868.75</v>
+        <v>868.875</v>
       </c>
       <c r="C7" t="n">
-        <v>67.75</v>
+        <v>70.375</v>
       </c>
       <c r="D7" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.8965100889312002</v>
       </c>
     </row>
     <row r="8">
@@ -594,68 +594,68 @@
         <v>142.7265625</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05088123831147109</v>
+        <v>0.05746845230796439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1753.243757247925</v>
+        <v>1758.621878623962</v>
       </c>
       <c r="B9" t="n">
-        <v>745.8199249505997</v>
+        <v>744.4099624752998</v>
       </c>
       <c r="C9" t="n">
-        <v>60.08672690391541</v>
+        <v>61.5433634519577</v>
       </c>
       <c r="D9" t="n">
-        <v>88.62499594688416</v>
+        <v>89.31249797344208</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9826389726438407</v>
+        <v>0.7407616817682955</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>451.71875</v>
+        <v>455.859375</v>
       </c>
       <c r="B10" t="n">
-        <v>450.9375</v>
+        <v>450.96875</v>
       </c>
       <c r="C10" t="n">
-        <v>88.71875</v>
+        <v>82.359375</v>
       </c>
       <c r="D10" t="n">
-        <v>55.59375</v>
+        <v>51.296875</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.7242192531908705</v>
       </c>
     </row>
     <row r="11">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.02295157643324819</v>
       </c>
     </row>
     <row r="12">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9909092222423252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -724,42 +724,42 @@
         <v>52</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1330292195783504</v>
+        <v>0.06457776079480321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>312.1238263845444</v>
+        <v>313.5619131922722</v>
       </c>
       <c r="B14" t="n">
-        <v>457.0075142383575</v>
+        <v>462.5037571191788</v>
       </c>
       <c r="C14" t="n">
-        <v>94.06661748886108</v>
+        <v>89.53330874443054</v>
       </c>
       <c r="D14" t="n">
-        <v>52.71848356723785</v>
+        <v>52.85924178361893</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9876772741613178</v>
+        <v>0.7778061629629105</v>
       </c>
     </row>
     <row r="15">
@@ -776,16 +776,16 @@
         <v>42.40217399597168</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9618756201611863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -802,16 +802,16 @@
         <v>75.14479577541351</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9875495609752836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -828,13 +828,13 @@
         <v>54.375</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -842,28 +842,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1865.139795064927</v>
+        <v>1870.069897532464</v>
       </c>
       <c r="B18" t="n">
-        <v>150.9687042236328</v>
+        <v>150.9843521118164</v>
       </c>
       <c r="C18" t="n">
-        <v>27.09381747245789</v>
+        <v>27.04690873622894</v>
       </c>
       <c r="D18" t="n">
-        <v>45.69539320468903</v>
+        <v>43.84769660234451</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9800357238673337</v>
+        <v>0.6888867434522939</v>
       </c>
     </row>
     <row r="19">
@@ -880,16 +880,16 @@
         <v>78.2109375</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08059921934505086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -946,28 +946,28 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>241.2441806793213</v>
+        <v>238.6220903396606</v>
       </c>
       <c r="B22" t="n">
-        <v>471.2010684013367</v>
+        <v>468.1005342006683</v>
       </c>
       <c r="C22" t="n">
-        <v>74.86510229110718</v>
+        <v>80.43255114555359</v>
       </c>
       <c r="D22" t="n">
-        <v>46.04574489593506</v>
+        <v>46.02287244796753</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9701989477550438</v>
+        <v>0.7010953527412095</v>
       </c>
     </row>
     <row r="23">
@@ -984,13 +984,13 @@
         <v>64.005859375</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -998,28 +998,28 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1623.810939073563</v>
+        <v>1625.405469536782</v>
       </c>
       <c r="B24" t="n">
-        <v>52.02866578102112</v>
+        <v>54.01433289051056</v>
       </c>
       <c r="C24" t="n">
-        <v>39.1764327287674</v>
+        <v>40.0882163643837</v>
       </c>
       <c r="D24" t="n">
-        <v>58.46452915668488</v>
+        <v>60.23226457834244</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9725804917162912</v>
+        <v>0.6780698578323975</v>
       </c>
     </row>
     <row r="25">
@@ -1045,7 +1045,7 @@
         <v>5.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1704471983265242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1071,111 +1071,111 @@
         <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.04727668845315904</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1756.875</v>
+        <v>1756.9375</v>
       </c>
       <c r="B27" t="n">
-        <v>122.5617027282715</v>
+        <v>124.2808513641357</v>
       </c>
       <c r="C27" t="n">
-        <v>36.66489219665527</v>
+        <v>34.83244609832764</v>
       </c>
       <c r="D27" t="n">
-        <v>51.68750762939453</v>
+        <v>52.84375381469727</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9390593318004896</v>
+        <v>0.8613090952104439</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>593.4033203125</v>
+        <v>595.20166015625</v>
       </c>
       <c r="B28" t="n">
-        <v>64.455078125</v>
+        <v>62.2275390625</v>
       </c>
       <c r="C28" t="n">
-        <v>46.1953125</v>
+        <v>47.59765625</v>
       </c>
       <c r="D28" t="n">
-        <v>39.9296875</v>
+        <v>40.96484375</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.7085685834133147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1812.166021943092</v>
+        <v>1813.583010971546</v>
       </c>
       <c r="B29" t="n">
-        <v>136.7187892198563</v>
+        <v>136.3593946099281</v>
       </c>
       <c r="C29" t="n">
-        <v>34.28126978874207</v>
+        <v>33.64063489437103</v>
       </c>
       <c r="D29" t="n">
-        <v>50.17030954360962</v>
+        <v>52.08515477180481</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9643221724672419</v>
+        <v>0.774167876655388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.97559380531311</v>
+        <v>7.487796902656555</v>
       </c>
       <c r="B30" t="n">
-        <v>493.8386198282242</v>
+        <v>498.4193099141121</v>
       </c>
       <c r="C30" t="n">
-        <v>75.11260783672333</v>
+        <v>72.55630391836166</v>
       </c>
       <c r="D30" t="n">
-        <v>33.0585412979126</v>
+        <v>33.0292706489563</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9909087974142025</v>
+        <v>0.7877650934431658</v>
       </c>
     </row>
     <row r="31">
@@ -1201,33 +1201,33 @@
         <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008349542198396509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1744.038553953171</v>
+        <v>1747.019276976585</v>
       </c>
       <c r="B32" t="n">
-        <v>74.6216995716095</v>
+        <v>73.81084978580475</v>
       </c>
       <c r="C32" t="n">
-        <v>33.44098103046417</v>
+        <v>34.72049051523209</v>
       </c>
       <c r="D32" t="n">
-        <v>50.71362864971161</v>
+        <v>47.3568143248558</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9633132522650077</v>
+        <v>0.813599536756195</v>
       </c>
     </row>
     <row r="33">
@@ -1253,33 +1253,33 @@
         <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08069268183125018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>81.50786888599396</v>
+        <v>83.25393444299698</v>
       </c>
       <c r="B34" t="n">
-        <v>492.0626472234726</v>
+        <v>492.5313236117363</v>
       </c>
       <c r="C34" t="n">
-        <v>72.62547731399536</v>
+        <v>73.31273865699768</v>
       </c>
       <c r="D34" t="n">
-        <v>37.52345812320709</v>
+        <v>37.76172906160355</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9394552480241158</v>
+        <v>0.787612132917038</v>
       </c>
     </row>
     <row r="35">
@@ -1305,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.09600054857456328</v>
       </c>
     </row>
     <row r="36">
@@ -1331,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7173434985090856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1357,33 +1357,33 @@
         <v>13</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08250872968513372</v>
+        <v>0.05800568024338798</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1841.964752197266</v>
+        <v>1842.982376098633</v>
       </c>
       <c r="B38" t="n">
-        <v>96.41365814208984</v>
+        <v>95.70682907104492</v>
       </c>
       <c r="C38" t="n">
-        <v>33.43363952636719</v>
+        <v>33.21681976318359</v>
       </c>
       <c r="D38" t="n">
-        <v>42.1627197265625</v>
+        <v>42.58135986328125</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9494553333650996</v>
+        <v>0.8195858605105911</v>
       </c>
     </row>
     <row r="39">
@@ -1409,59 +1409,59 @@
         <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.05144168772275438</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1796.031437635422</v>
+        <v>1796.515718817711</v>
       </c>
       <c r="B40" t="n">
-        <v>84.1462185382843</v>
+        <v>84.57310926914215</v>
       </c>
       <c r="C40" t="n">
-        <v>33.94746780395508</v>
+        <v>33.47373390197754</v>
       </c>
       <c r="D40" t="n">
-        <v>45.87445330619812</v>
+        <v>46.43722665309906</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.98061268719143</v>
+        <v>0.9111348290878591</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>41.94135737419128</v>
+        <v>42.97067868709564</v>
       </c>
       <c r="B41" t="n">
-        <v>492.1572730541229</v>
+        <v>495.0786365270615</v>
       </c>
       <c r="C41" t="n">
-        <v>75.71346378326416</v>
+        <v>73.85673189163208</v>
       </c>
       <c r="D41" t="n">
-        <v>35.0916793346405</v>
+        <v>34.54583966732025</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9695875786781457</v>
+        <v>0.8252234223715881</v>
       </c>
     </row>
     <row r="42">
@@ -1487,33 +1487,33 @@
         <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9792875992013067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>170.19140625</v>
+        <v>172.595703125</v>
       </c>
       <c r="B43" t="n">
-        <v>181.080078125</v>
+        <v>188.5400390625</v>
       </c>
       <c r="C43" t="n">
-        <v>57.634765625</v>
+        <v>50.3173828125</v>
       </c>
       <c r="D43" t="n">
-        <v>36.998046875</v>
+        <v>34.4990234375</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9674075625922425</v>
+        <v>0.7031841923012632</v>
       </c>
     </row>
     <row r="44">
@@ -1539,7 +1539,7 @@
         <v>5.5</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08825141659899852</v>
+        <v>0.02114340709872186</v>
       </c>
     </row>
     <row r="45">
@@ -1565,7 +1565,7 @@
         <v>27</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9707881091180701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1591,7 +1591,7 @@
         <v>28</v>
       </c>
       <c r="H46" t="n">
-        <v>0.970788251108752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1617,7 +1617,7 @@
         <v>7</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.01703433100319628</v>
       </c>
     </row>
     <row r="48">
@@ -1643,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.01704572817802543</v>
       </c>
     </row>
     <row r="49">
@@ -1660,68 +1660,68 @@
         <v>134.7421875</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07895743090433205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1315.241283416748</v>
+        <v>1315.620641708374</v>
       </c>
       <c r="B50" t="n">
-        <v>19.37434768676758</v>
+        <v>20.68717384338379</v>
       </c>
       <c r="C50" t="n">
-        <v>38.52075004577637</v>
+        <v>37.76037502288818</v>
       </c>
       <c r="D50" t="n">
-        <v>66.81315231323242</v>
+        <v>68.90657615661621</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9668651124396417</v>
+        <v>0.837919922318992</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1234.29590511322</v>
+        <v>1234.14795255661</v>
       </c>
       <c r="B51" t="n">
-        <v>17.76825714111328</v>
+        <v>18.88412857055664</v>
       </c>
       <c r="C51" t="n">
-        <v>37.2886004447937</v>
+        <v>37.14430022239685</v>
       </c>
       <c r="D51" t="n">
-        <v>68.76438784599304</v>
+        <v>70.88219392299652</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9746195195905736</v>
+        <v>0.844523871125807</v>
       </c>
     </row>
     <row r="52">
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9693289751292606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1770,10 +1770,10 @@
         <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04556971233301528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1799,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9584775566566122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -1842,94 +1842,94 @@
         <v>48.87312316894531</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9637488595321368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1685.406190872192</v>
+        <v>1688.203095436096</v>
       </c>
       <c r="B57" t="n">
-        <v>64.22879409790039</v>
+        <v>62.6143970489502</v>
       </c>
       <c r="C57" t="n">
-        <v>33.87248134613037</v>
+        <v>34.93624067306519</v>
       </c>
       <c r="D57" t="n">
-        <v>53.52901458740234</v>
+        <v>53.76450729370117</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G57" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9636914593014837</v>
+        <v>0.7247662704679585</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1894.389892578125</v>
+        <v>1895.694946289062</v>
       </c>
       <c r="B58" t="n">
-        <v>716.2152099609375</v>
+        <v>717.1076049804688</v>
       </c>
       <c r="C58" t="n">
-        <v>56.1680908203125</v>
+        <v>62.58404541015625</v>
       </c>
       <c r="D58" t="n">
-        <v>24.5792236328125</v>
+        <v>23.28961181640625</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9295253455919543</v>
+        <v>0.7012222849503953</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>306.5</v>
+        <v>304.75</v>
       </c>
       <c r="B59" t="n">
-        <v>840.25</v>
+        <v>842.125</v>
       </c>
       <c r="C59" t="n">
-        <v>66.75</v>
+        <v>64.875</v>
       </c>
       <c r="D59" t="n">
-        <v>123.25</v>
+        <v>118.125</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>0.06577236460441176</v>
+        <v>0.8166381816971123</v>
       </c>
     </row>
     <row r="60">
@@ -1955,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9577489122162828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2033,7 +2033,7 @@
         <v>2.5</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2543896568897758</v>
+        <v>0.1087605766158435</v>
       </c>
     </row>
     <row r="64">
@@ -2050,16 +2050,16 @@
         <v>71.32470703125</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9622653415647453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2076,16 +2076,16 @@
         <v>67.62255859375</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0.978319874752996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2102,16 +2102,16 @@
         <v>71.764892578125</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H66" t="n">
-        <v>0.987248221720644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2134,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01281794512317244</v>
+        <v>0.03160806005531411</v>
       </c>
     </row>
     <row r="69">
@@ -2186,13 +2186,64 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0.05330926299443312</v>
-      </c>
-    </row>
-    <row r="70"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>573</v>
+      </c>
+      <c r="B70" t="n">
+        <v>101</v>
+      </c>
+      <c r="C70" t="n">
+        <v>59</v>
+      </c>
+      <c r="D70" t="n">
+        <v>43</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0342111186135494</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B71" t="n">
+        <v>102</v>
+      </c>
+      <c r="C71" t="n">
+        <v>39</v>
+      </c>
+      <c r="D71" t="n">
+        <v>64</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
   <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
